--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009501020041581962</v>
+        <v>-0.03550443442769693</v>
       </c>
       <c r="C2">
-        <v>0.4746477401033401</v>
+        <v>0.4494482028570796</v>
       </c>
       <c r="D2">
-        <v>0.2965688868987359</v>
+        <v>0.266414150275854</v>
       </c>
       <c r="E2">
-        <v>0.544581386845654</v>
+        <v>0.5161532236418309</v>
       </c>
       <c r="F2">
-        <v>0.5650527984340983</v>
+        <v>0.5330038716810166</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.003392262443854432</v>
+        <v>0.02310156321232606</v>
       </c>
       <c r="C3">
-        <v>0.3912510158997088</v>
+        <v>0.3926748527515752</v>
       </c>
       <c r="D3">
-        <v>0.2251693867599737</v>
+        <v>0.2150774634025442</v>
       </c>
       <c r="E3">
-        <v>0.4745201647559076</v>
+        <v>0.463764448187379</v>
       </c>
       <c r="F3">
-        <v>0.4938836258928915</v>
+        <v>0.4806736408029301</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.007020887104700464</v>
+        <v>-0.01768369464496384</v>
       </c>
       <c r="C4">
-        <v>0.5762628849289019</v>
+        <v>0.5371479443576889</v>
       </c>
       <c r="D4">
-        <v>0.4749847664010022</v>
+        <v>0.4289931411788038</v>
       </c>
       <c r="E4">
-        <v>0.6891913859016248</v>
+        <v>0.6549756798376591</v>
       </c>
       <c r="F4">
-        <v>0.7197995732742163</v>
+        <v>0.6814717874811226</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05053363452023554</v>
+        <v>0.04484032762995968</v>
       </c>
       <c r="C5">
-        <v>0.4375744270975921</v>
+        <v>0.3900917434466585</v>
       </c>
       <c r="D5">
-        <v>0.325812659573224</v>
+        <v>0.2911825458959873</v>
       </c>
       <c r="E5">
-        <v>0.5708000171454307</v>
+        <v>0.5396133299835979</v>
       </c>
       <c r="F5">
-        <v>0.5963094100305136</v>
+        <v>0.5616584768642613</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.06978482674428402</v>
+        <v>0.04618976013043215</v>
       </c>
       <c r="C6">
-        <v>0.3848972408978768</v>
+        <v>0.3482013799665239</v>
       </c>
       <c r="D6">
-        <v>0.2390639156058218</v>
+        <v>0.2021242622245639</v>
       </c>
       <c r="E6">
-        <v>0.4889416280148601</v>
+        <v>0.4495823197419622</v>
       </c>
       <c r="F6">
-        <v>0.5101132701688171</v>
+        <v>0.4690307507104655</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01100654351708598</v>
+        <v>0.01802609018820156</v>
       </c>
       <c r="C7">
-        <v>0.4166838912683629</v>
+        <v>0.396353456599608</v>
       </c>
       <c r="D7">
-        <v>0.3044831533001779</v>
+        <v>0.271167765387455</v>
       </c>
       <c r="E7">
-        <v>0.5517999214390827</v>
+        <v>0.5207377126610431</v>
       </c>
       <c r="F7">
-        <v>0.5851557574376949</v>
+        <v>0.5485767701364259</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.042510881834474</v>
+        <v>-0.08230540368573748</v>
       </c>
       <c r="C8">
-        <v>0.4254626551987596</v>
+        <v>0.4030200371981603</v>
       </c>
       <c r="D8">
-        <v>0.2712420792403139</v>
+        <v>0.2441143047403328</v>
       </c>
       <c r="E8">
-        <v>0.5208090621718423</v>
+        <v>0.4940792494532966</v>
       </c>
       <c r="F8">
-        <v>0.554910447514829</v>
+        <v>0.5167278209294698</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.004280573073704441</v>
+        <v>-0.03533701630595494</v>
       </c>
       <c r="C9">
-        <v>0.6572243065359462</v>
+        <v>0.5782167566939017</v>
       </c>
       <c r="D9">
-        <v>0.591177536456297</v>
+        <v>0.5048288183583536</v>
       </c>
       <c r="E9">
-        <v>0.7688807036571389</v>
+        <v>0.7105130669863529</v>
       </c>
       <c r="F9">
-        <v>0.8304732076807378</v>
+        <v>0.7586304303617115</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1436433823879718</v>
+        <v>0.1068317712072389</v>
       </c>
       <c r="C10">
-        <v>0.5217847821696249</v>
+        <v>0.4608479654118836</v>
       </c>
       <c r="D10">
-        <v>0.3435218944588234</v>
+        <v>0.2863969179506793</v>
       </c>
       <c r="E10">
-        <v>0.5861074086366963</v>
+        <v>0.5351606468628642</v>
       </c>
       <c r="F10">
-        <v>0.6224678046180055</v>
+        <v>0.5664049249844474</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0871760768924959</v>
+        <v>-0.005335926578848192</v>
       </c>
       <c r="C11">
-        <v>0.3212774189789152</v>
+        <v>0.3488635011072845</v>
       </c>
       <c r="D11">
-        <v>0.131251767553154</v>
+        <v>0.1472458661147809</v>
       </c>
       <c r="E11">
-        <v>0.3622868581016347</v>
+        <v>0.3837262906223405</v>
       </c>
       <c r="F11">
-        <v>0.393147712651981</v>
+        <v>0.4203104481247061</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03550443442769693</v>
+        <v>0.02310156321232606</v>
       </c>
       <c r="C2">
-        <v>0.4494482028570796</v>
+        <v>0.3926748527515752</v>
       </c>
       <c r="D2">
-        <v>0.266414150275854</v>
+        <v>0.2150774634025442</v>
       </c>
       <c r="E2">
-        <v>0.5161532236418309</v>
+        <v>0.463764448187379</v>
       </c>
       <c r="F2">
-        <v>0.5330038716810166</v>
+        <v>0.4806736408029301</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02310156321232606</v>
+        <v>-0.01768369464496384</v>
       </c>
       <c r="C3">
-        <v>0.3926748527515752</v>
+        <v>0.5371479443576889</v>
       </c>
       <c r="D3">
-        <v>0.2150774634025442</v>
+        <v>0.4289931411788038</v>
       </c>
       <c r="E3">
-        <v>0.463764448187379</v>
+        <v>0.6549756798376591</v>
       </c>
       <c r="F3">
-        <v>0.4806736408029301</v>
+        <v>0.6814717874811226</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.01768369464496384</v>
+        <v>0.04484032762995968</v>
       </c>
       <c r="C4">
-        <v>0.5371479443576889</v>
+        <v>0.3900917434466585</v>
       </c>
       <c r="D4">
-        <v>0.4289931411788038</v>
+        <v>0.2911825458959873</v>
       </c>
       <c r="E4">
-        <v>0.6549756798376591</v>
+        <v>0.5396133299835979</v>
       </c>
       <c r="F4">
-        <v>0.6814717874811226</v>
+        <v>0.5616584768642613</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04484032762995968</v>
+        <v>0.04618976013043215</v>
       </c>
       <c r="C5">
-        <v>0.3900917434466585</v>
+        <v>0.3482013799665239</v>
       </c>
       <c r="D5">
-        <v>0.2911825458959873</v>
+        <v>0.2021242622245639</v>
       </c>
       <c r="E5">
-        <v>0.5396133299835979</v>
+        <v>0.4495823197419622</v>
       </c>
       <c r="F5">
-        <v>0.5616584768642613</v>
+        <v>0.4690307507104655</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04618976013043215</v>
+        <v>0.01802609018820156</v>
       </c>
       <c r="C6">
-        <v>0.3482013799665239</v>
+        <v>0.396353456599608</v>
       </c>
       <c r="D6">
-        <v>0.2021242622245639</v>
+        <v>0.271167765387455</v>
       </c>
       <c r="E6">
-        <v>0.4495823197419622</v>
+        <v>0.5207377126610431</v>
       </c>
       <c r="F6">
-        <v>0.4690307507104655</v>
+        <v>0.5485767701364259</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01802609018820156</v>
+        <v>-0.08230540368573748</v>
       </c>
       <c r="C7">
-        <v>0.396353456599608</v>
+        <v>0.4030200371981603</v>
       </c>
       <c r="D7">
-        <v>0.271167765387455</v>
+        <v>0.2441143047403328</v>
       </c>
       <c r="E7">
-        <v>0.5207377126610431</v>
+        <v>0.4940792494532966</v>
       </c>
       <c r="F7">
-        <v>0.5485767701364259</v>
+        <v>0.5167278209294698</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.08230540368573748</v>
+        <v>-0.03533701630595494</v>
       </c>
       <c r="C8">
-        <v>0.4030200371981603</v>
+        <v>0.5782167566939017</v>
       </c>
       <c r="D8">
-        <v>0.2441143047403328</v>
+        <v>0.5048288183583536</v>
       </c>
       <c r="E8">
-        <v>0.4940792494532966</v>
+        <v>0.7105130669863529</v>
       </c>
       <c r="F8">
-        <v>0.5167278209294698</v>
+        <v>0.7586304303617115</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03533701630595494</v>
+        <v>0.1068317712072389</v>
       </c>
       <c r="C9">
-        <v>0.5782167566939017</v>
+        <v>0.4608479654118836</v>
       </c>
       <c r="D9">
-        <v>0.5048288183583536</v>
+        <v>0.2863969179506793</v>
       </c>
       <c r="E9">
-        <v>0.7105130669863529</v>
+        <v>0.5351606468628642</v>
       </c>
       <c r="F9">
-        <v>0.7586304303617115</v>
+        <v>0.5664049249844474</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1068317712072389</v>
+        <v>-0.005335926578848192</v>
       </c>
       <c r="C10">
-        <v>0.4608479654118836</v>
+        <v>0.3488635011072845</v>
       </c>
       <c r="D10">
-        <v>0.2863969179506793</v>
+        <v>0.1472458661147809</v>
       </c>
       <c r="E10">
-        <v>0.5351606468628642</v>
+        <v>0.3837262906223405</v>
       </c>
       <c r="F10">
-        <v>0.5664049249844474</v>
+        <v>0.4203104481247061</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.005335926578848192</v>
+        <v>0.03223045541561795</v>
       </c>
       <c r="C11">
-        <v>0.3488635011072845</v>
+        <v>0.3832847050435998</v>
       </c>
       <c r="D11">
-        <v>0.1472458661147809</v>
+        <v>0.1801749238854154</v>
       </c>
       <c r="E11">
-        <v>0.3837262906223405</v>
+        <v>0.4244701684281422</v>
       </c>
       <c r="F11">
-        <v>0.4203104481247061</v>
+        <v>0.47320202032155</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02310156321232606</v>
+        <v>-0.03550443442769693</v>
       </c>
       <c r="C2">
-        <v>0.3926748527515752</v>
+        <v>0.4494482028570796</v>
       </c>
       <c r="D2">
-        <v>0.2150774634025442</v>
+        <v>0.266414150275854</v>
       </c>
       <c r="E2">
-        <v>0.463764448187379</v>
+        <v>0.5161532236418309</v>
       </c>
       <c r="F2">
-        <v>0.4806736408029301</v>
+        <v>0.5330038716810166</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01768369464496384</v>
+        <v>0.02310156321232606</v>
       </c>
       <c r="C3">
-        <v>0.5371479443576889</v>
+        <v>0.3926748527515752</v>
       </c>
       <c r="D3">
-        <v>0.4289931411788038</v>
+        <v>0.2150774634025442</v>
       </c>
       <c r="E3">
-        <v>0.6549756798376591</v>
+        <v>0.463764448187379</v>
       </c>
       <c r="F3">
-        <v>0.6814717874811226</v>
+        <v>0.4806736408029301</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04484032762995968</v>
+        <v>-0.01768369464496384</v>
       </c>
       <c r="C4">
-        <v>0.3900917434466585</v>
+        <v>0.5371479443576889</v>
       </c>
       <c r="D4">
-        <v>0.2911825458959873</v>
+        <v>0.4289931411788038</v>
       </c>
       <c r="E4">
-        <v>0.5396133299835979</v>
+        <v>0.6549756798376591</v>
       </c>
       <c r="F4">
-        <v>0.5616584768642613</v>
+        <v>0.6814717874811226</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04618976013043215</v>
+        <v>0.04484032762995968</v>
       </c>
       <c r="C5">
-        <v>0.3482013799665239</v>
+        <v>0.3900917434466585</v>
       </c>
       <c r="D5">
-        <v>0.2021242622245639</v>
+        <v>0.2911825458959873</v>
       </c>
       <c r="E5">
-        <v>0.4495823197419622</v>
+        <v>0.5396133299835979</v>
       </c>
       <c r="F5">
-        <v>0.4690307507104655</v>
+        <v>0.5616584768642613</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01802609018820156</v>
+        <v>0.04618976013043215</v>
       </c>
       <c r="C6">
-        <v>0.396353456599608</v>
+        <v>0.3482013799665239</v>
       </c>
       <c r="D6">
-        <v>0.271167765387455</v>
+        <v>0.2021242622245639</v>
       </c>
       <c r="E6">
-        <v>0.5207377126610431</v>
+        <v>0.4495823197419622</v>
       </c>
       <c r="F6">
-        <v>0.5485767701364259</v>
+        <v>0.4690307507104655</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.08230540368573748</v>
+        <v>0.01802609018820156</v>
       </c>
       <c r="C7">
-        <v>0.4030200371981603</v>
+        <v>0.396353456599608</v>
       </c>
       <c r="D7">
-        <v>0.2441143047403328</v>
+        <v>0.271167765387455</v>
       </c>
       <c r="E7">
-        <v>0.4940792494532966</v>
+        <v>0.5207377126610431</v>
       </c>
       <c r="F7">
-        <v>0.5167278209294698</v>
+        <v>0.5485767701364259</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03533701630595494</v>
+        <v>-0.08230540368573748</v>
       </c>
       <c r="C8">
-        <v>0.5782167566939017</v>
+        <v>0.4030200371981603</v>
       </c>
       <c r="D8">
-        <v>0.5048288183583536</v>
+        <v>0.2441143047403328</v>
       </c>
       <c r="E8">
-        <v>0.7105130669863529</v>
+        <v>0.4940792494532966</v>
       </c>
       <c r="F8">
-        <v>0.7586304303617115</v>
+        <v>0.5167278209294698</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1068317712072389</v>
+        <v>-0.03533701630595494</v>
       </c>
       <c r="C9">
-        <v>0.4608479654118836</v>
+        <v>0.5782167566939017</v>
       </c>
       <c r="D9">
-        <v>0.2863969179506793</v>
+        <v>0.5048288183583536</v>
       </c>
       <c r="E9">
-        <v>0.5351606468628642</v>
+        <v>0.7105130669863529</v>
       </c>
       <c r="F9">
-        <v>0.5664049249844474</v>
+        <v>0.7586304303617115</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.005335926578848192</v>
+        <v>0.1068317712072389</v>
       </c>
       <c r="C10">
-        <v>0.3488635011072845</v>
+        <v>0.4608479654118836</v>
       </c>
       <c r="D10">
-        <v>0.1472458661147809</v>
+        <v>0.2863969179506793</v>
       </c>
       <c r="E10">
-        <v>0.3837262906223405</v>
+        <v>0.5351606468628642</v>
       </c>
       <c r="F10">
-        <v>0.4203104481247061</v>
+        <v>0.5664049249844474</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03223045541561795</v>
+        <v>-0.005335926578848192</v>
       </c>
       <c r="C11">
-        <v>0.3832847050435998</v>
+        <v>0.3488635011072845</v>
       </c>
       <c r="D11">
-        <v>0.1801749238854154</v>
+        <v>0.1472458661147809</v>
       </c>
       <c r="E11">
-        <v>0.4244701684281422</v>
+        <v>0.3837262906223405</v>
       </c>
       <c r="F11">
-        <v>0.47320202032155</v>
+        <v>0.4203104481247061</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
